--- a/pearson_tables/t2m_netherlands-2-9.xlsx
+++ b/pearson_tables/t2m_netherlands-2-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6990887268304373</v>
+        <v>0.7071213247715055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7025791039411928</v>
+        <v>0.7153779687101763</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6781417826490215</v>
+        <v>-0.7345133990295726</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8020863673049331</v>
+        <v>0.789065347719531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.670888820588199</v>
+        <v>-0.6710508095471874</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6893611209095709</v>
+        <v>0.6490480654853393</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6923186457561153</v>
+        <v>0.6907189591952101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6095635598836475</v>
+        <v>0.615008267682505</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4957336364477893</v>
+        <v>-0.4955375677988925</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6633032155684202</v>
+        <v>0.6785793780143853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5814780451240685</v>
+        <v>0.63075314846554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7962482597053792</v>
+        <v>-0.7488830375147261</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6203490099084041</v>
+        <v>-0.626379644455724</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5103296681606343</v>
+        <v>-0.5204727503306908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4853684227734996</v>
+        <v>0.4967142313397087</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6441808185749454</v>
+        <v>-0.6712524176841326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6178291497538609</v>
+        <v>0.6643749364553686</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6045134569017933</v>
+        <v>-0.6315367212659616</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6489618843070494</v>
+        <v>-0.6823854881919217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6478364096418298</v>
+        <v>0.6298017913221797</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6183202699865236</v>
+        <v>-0.6160558264211886</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7040830761439422</v>
+        <v>-0.7030705900652932</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6377983881689734</v>
+        <v>-0.6688559084173442</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5704181766295662</v>
+        <v>-0.6872748767470558</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-9.xlsx
+++ b/pearson_tables/t2m_netherlands-2-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7071213247715055</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7153779687101763</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7345133990295726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.789065347719531</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6710508095471874</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6490480654853393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6907189591952101</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.615008267682505</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4955375677988925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6785793780143853</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.63075314846554</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7488830375147261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.626379644455724</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5204727503306908</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4967142313397087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6712524176841326</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6643749364553686</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6315367212659616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6823854881919217</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6298017913221797</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6160558264211886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7030705900652932</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6688559084173442</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6872748767470558</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
